--- a/Python/src/18 Financial Python/Spreadsheets/data/writingToCells.xlsx
+++ b/Python/src/18 Financial Python/Spreadsheets/data/writingToCells.xlsx
@@ -6,8 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="writing to individual cells" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="writing to groups of cells" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="writing to cells" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>Hello</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>--A--</t>
   </si>
@@ -51,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="dd-mm-yyyy  hh:mm:ss" numFmtId="164"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="dd-mm-yyyy" numFmtId="165"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -85,7 +82,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -383,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G7"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,405 +388,598 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="n">
+        <v>42853.61634723916</v>
+      </c>
+      <c r="B1" t="n">
+        <v>42</v>
+      </c>
+      <c r="C1" t="n">
+        <v>43</v>
+      </c>
       <c r="D1" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="1" t="n">
-        <v>36526.22650462963</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34</v>
+      </c>
+      <c r="E2" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" t="n">
+        <v>43</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46</v>
+      </c>
+      <c r="I2" t="n">
+        <v>49</v>
+      </c>
+      <c r="J2" t="n">
+        <v>52</v>
+      </c>
+      <c r="K2" t="n">
+        <v>55</v>
+      </c>
+      <c r="L2" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B3" t="n">
+        <v>28</v>
+      </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>40</v>
       </c>
       <c r="G3" t="n">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="n">
+        <v>46</v>
+      </c>
+      <c r="I3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J3" t="n">
+        <v>52</v>
+      </c>
+      <c r="K3" t="n">
+        <v>55</v>
+      </c>
+      <c r="L3" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="n">
+        <v>25</v>
+      </c>
+      <c r="B4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43</v>
+      </c>
+      <c r="H4" t="n">
+        <v>46</v>
+      </c>
+      <c r="I4" t="n">
+        <v>49</v>
+      </c>
+      <c r="J4" t="n">
+        <v>52</v>
+      </c>
+      <c r="K4" t="n">
+        <v>55</v>
+      </c>
+      <c r="L4" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G5" t="n">
+        <v>43</v>
+      </c>
+      <c r="H5" t="n">
+        <v>46</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49</v>
+      </c>
+      <c r="J5" t="n">
+        <v>52</v>
+      </c>
+      <c r="K5" t="n">
+        <v>55</v>
+      </c>
+      <c r="L5" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B6" t="n">
+        <v>28</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34</v>
+      </c>
+      <c r="E6" t="n">
+        <v>37</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n">
+        <v>43</v>
+      </c>
+      <c r="H6" t="n">
+        <v>46</v>
+      </c>
+      <c r="I6" t="n">
+        <v>49</v>
+      </c>
+      <c r="J6" t="n">
+        <v>52</v>
+      </c>
+      <c r="K6" t="n">
+        <v>55</v>
+      </c>
+      <c r="L6" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>64</v>
+      </c>
+      <c r="K7" t="n">
+        <v>121</v>
+      </c>
+      <c r="N7" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>64</v>
+      </c>
+      <c r="K8" t="n">
+        <v>121</v>
+      </c>
+      <c r="N8" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+      <c r="K9" t="n">
+        <v>121</v>
+      </c>
+      <c r="N9" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>64</v>
+      </c>
+      <c r="K10" t="n">
+        <v>121</v>
+      </c>
+      <c r="N10" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>64</v>
+      </c>
+      <c r="K11" t="n">
+        <v>121</v>
+      </c>
+      <c r="N11" t="n">
+        <v>196</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="D7" t="n">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AA19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B1" t="n">
-        <v>28</v>
-      </c>
-      <c r="C1" t="n">
-        <v>31</v>
-      </c>
-      <c r="D1" t="n">
-        <v>34</v>
-      </c>
-      <c r="E1" t="n">
-        <v>37</v>
-      </c>
-      <c r="F1" t="n">
-        <v>40</v>
-      </c>
-      <c r="G1" t="n">
-        <v>43</v>
-      </c>
-      <c r="H1" t="n">
-        <v>46</v>
-      </c>
-      <c r="I1" t="n">
-        <v>49</v>
-      </c>
-      <c r="J1" t="n">
-        <v>52</v>
-      </c>
-      <c r="K1" t="n">
-        <v>55</v>
-      </c>
-      <c r="L1" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="F2" t="n">
-        <v>36</v>
-      </c>
-      <c r="I2" t="n">
-        <v>81</v>
-      </c>
-      <c r="L2" t="n">
-        <v>144</v>
-      </c>
-      <c r="O2" t="n">
-        <v>225</v>
-      </c>
-      <c r="R2" t="n">
-        <v>324</v>
-      </c>
-      <c r="U2" t="n">
-        <v>441</v>
-      </c>
-      <c r="X2" t="n">
-        <v>576</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" t="s">
+      <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G20" t="s">
         <v>6</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H20" t="s">
         <v>7</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I20" t="s">
         <v>8</v>
       </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" t="s">
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G21" t="s">
         <v>6</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H21" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I21" t="s">
         <v>8</v>
       </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" t="s">
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C22" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G22" t="s">
         <v>6</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H22" t="s">
         <v>7</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I22" t="s">
         <v>8</v>
       </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" t="s">
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D23" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G23" t="s">
         <v>6</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H23" t="s">
         <v>7</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I23" t="s">
         <v>8</v>
       </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" t="s">
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G24" t="s">
         <v>6</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H24" t="s">
         <v>7</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I24" t="s">
         <v>8</v>
       </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" t="s">
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H25" t="s">
         <v>7</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I25" t="s">
         <v>8</v>
       </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" t="s">
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D26" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G26" t="s">
         <v>6</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H26" t="s">
         <v>7</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I26" t="s">
         <v>8</v>
       </c>
-      <c r="I16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" t="s">
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D27" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G27" t="s">
         <v>6</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H27" t="s">
         <v>7</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I27" t="s">
         <v>8</v>
       </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
-      <c r="A18" t="s">
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G28" t="s">
         <v>6</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H28" t="s">
         <v>7</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I28" t="s">
         <v>8</v>
       </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
-      <c r="A19" t="s">
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D29" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G29" t="s">
         <v>6</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H29" t="s">
         <v>7</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I29" t="s">
         <v>8</v>
-      </c>
-      <c r="I19" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
